--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Lrp5.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H2">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N2">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O2">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P2">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q2">
-        <v>0.50393624035</v>
+        <v>0.3417605567786666</v>
       </c>
       <c r="R2">
-        <v>4.535426163149999</v>
+        <v>3.075845011007999</v>
       </c>
       <c r="S2">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="T2">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H3">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P3">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q3">
-        <v>0.3927792688</v>
+        <v>0.231820771776</v>
       </c>
       <c r="R3">
-        <v>3.535013419199999</v>
+        <v>2.086386945984</v>
       </c>
       <c r="S3">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="T3">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H4">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N4">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q4">
-        <v>0.2895370616722223</v>
+        <v>0.1338133184886666</v>
       </c>
       <c r="R4">
-        <v>2.60583355505</v>
+        <v>1.204319866398</v>
       </c>
       <c r="S4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="T4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
     </row>
   </sheetData>
